--- a/Data Sources/MANUAL/RenHeatGen.xlsx
+++ b/Data Sources/MANUAL/RenHeatGen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE296F2D-FE01-4EC5-827F-1F2D068D0009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215A0EE-375B-4CB9-B1E6-6E4BE13C6625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{34935359-8B14-470A-BA1A-6155F162D50F}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -400,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83756BCE-0410-4F26-9364-25A8A0BB765A}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -437,7 +436,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="1">
-        <v>1363</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +444,7 @@
         <v>2011</v>
       </c>
       <c r="B5" s="1">
-        <v>1690</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +452,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="1">
-        <v>2045</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +460,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="1">
-        <v>2266</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +468,7 @@
         <v>2014</v>
       </c>
       <c r="B8" s="1">
-        <v>3071</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +476,7 @@
         <v>2015</v>
       </c>
       <c r="B9" s="1">
-        <v>4205</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +484,7 @@
         <v>2016</v>
       </c>
       <c r="B10" s="1">
-        <v>3753</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +492,7 @@
         <v>2017</v>
       </c>
       <c r="B11" s="1">
-        <v>4569</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +500,7 @@
         <v>2018</v>
       </c>
       <c r="B12" s="1">
-        <v>4966</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +508,15 @@
         <v>2019</v>
       </c>
       <c r="B13" s="1">
-        <v>5205</v>
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5008</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/RenHeatGen.xlsx
+++ b/Data Sources/MANUAL/RenHeatGen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215A0EE-375B-4CB9-B1E6-6E4BE13C6625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A3A79-F983-44A3-9285-3A9DFA0BA4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{34935359-8B14-470A-BA1A-6155F162D50F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{34935359-8B14-470A-BA1A-6155F162D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Renewable Heat</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83756BCE-0410-4F26-9364-25A8A0BB765A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -410,113 +413,152 @@
     <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2008</v>
       </c>
       <c r="B2" s="1">
         <v>863</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0.23841799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
       <c r="B4" s="1">
         <v>1667</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
       <c r="B5" s="1">
         <v>1709</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
       <c r="B6" s="1">
         <v>1883</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2013</v>
       </c>
       <c r="B7" s="1">
         <v>2103</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
       <c r="B8" s="1">
         <v>2661</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
       <c r="B9" s="1">
         <v>3906</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
       <c r="B10" s="1">
         <v>3542</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2017</v>
       </c>
       <c r="B11" s="1">
         <v>4346</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
       <c r="B12" s="1">
         <v>4813</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2019</v>
       </c>
       <c r="B13" s="1">
         <v>4925</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
       <c r="B14" s="1">
         <v>5008</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/RenHeatGen.xlsx
+++ b/Data Sources/MANUAL/RenHeatGen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A3A79-F983-44A3-9285-3A9DFA0BA4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563D677-9161-4D61-B83E-07D132123DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{34935359-8B14-470A-BA1A-6155F162D50F}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -439,6 +439,12 @@
       <c r="A3" s="1">
         <v>2009</v>
       </c>
+      <c r="B3" s="1">
+        <v>863</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.23841799999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">

--- a/Data Sources/MANUAL/RenHeatGen.xlsx
+++ b/Data Sources/MANUAL/RenHeatGen.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563D677-9161-4D61-B83E-07D132123DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E0147-37E5-4A07-BAB4-A6572F083857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{34935359-8B14-470A-BA1A-6155F162D50F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34935359-8B14-470A-BA1A-6155F162D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -44,12 +35,18 @@
   <si>
     <t>Capacity</t>
   </si>
+  <si>
+    <t>Maximum non-industrial renewable heat</t>
+  </si>
+  <si>
+    <t>Minimum non-industrial renewable heat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +58,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +92,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,18 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83756BCE-0410-4F26-9364-25A8A0BB765A}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="C2" sqref="C2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,150 +434,200 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B2" s="1">
-        <v>863</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.23841799999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1680.4581205392512</v>
+      </c>
+      <c r="C2" s="3">
+        <v>220.33310200458655</v>
+      </c>
+      <c r="D2">
+        <v>121.14755616283888</v>
+      </c>
+      <c r="E2">
+        <v>0.51177432306943982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="1">
-        <v>863</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.23841799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1867.235467191779</v>
+      </c>
+      <c r="C3">
+        <v>350.97420006537124</v>
+      </c>
+      <c r="D3">
+        <v>176.23168843903053</v>
+      </c>
+      <c r="E3">
+        <v>0.66806701395241508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1667</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2437.1666580942674</v>
+      </c>
+      <c r="C4">
+        <v>543.66147684384816</v>
+      </c>
+      <c r="D4">
+        <v>242.75119396996661</v>
+      </c>
+      <c r="E4">
+        <v>1.0648897755798614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1709</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3570.8154055254422</v>
+      </c>
+      <c r="C5">
+        <v>1054.3672712265823</v>
+      </c>
+      <c r="D5">
+        <v>479.14270190046079</v>
+      </c>
+      <c r="E5">
+        <v>1.2717059912521915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1883</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3306.9694722338336</v>
+      </c>
+      <c r="C6">
+        <v>1591.5702894208166</v>
+      </c>
+      <c r="D6">
+        <v>773.07013522436046</v>
+      </c>
+      <c r="E6">
+        <v>1.4732831278601868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2103</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4055.2907033428419</v>
+      </c>
+      <c r="C7">
+        <v>2175.8225793767142</v>
+      </c>
+      <c r="D7">
+        <v>931.64858517906214</v>
+      </c>
+      <c r="E7">
+        <v>1.7778105850621913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2661</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4554.717018588286</v>
+      </c>
+      <c r="C8">
+        <v>2497.3365954814853</v>
+      </c>
+      <c r="D8">
+        <v>1002.0431617484071</v>
+      </c>
+      <c r="E8">
+        <v>1.9242021898608752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3906</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4692.6859962488843</v>
+      </c>
+      <c r="C9">
+        <v>2754.7743007035861</v>
+      </c>
+      <c r="D9">
+        <v>1175.7542750458865</v>
+      </c>
+      <c r="E9">
+        <v>1.9918309563649395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3542</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4770.2746453792261</v>
+      </c>
+      <c r="C10">
+        <v>2866.5828040849237</v>
+      </c>
+      <c r="D10">
+        <v>1226.4496068592643</v>
+      </c>
+      <c r="E10">
+        <v>2.091707506364934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4346</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5420.1546478344526</v>
+      </c>
+      <c r="C11">
+        <v>3227.2586783807724</v>
+      </c>
+      <c r="D11">
+        <v>1444.3307478183331</v>
+      </c>
+      <c r="E11">
+        <v>2.2260758322132155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4813</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4925</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5008</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.14</v>
+        <v>2022</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5631.658405336615</v>
+      </c>
+      <c r="C12">
+        <v>3392.6167666729639</v>
+      </c>
+      <c r="D12">
+        <v>1558.5307859005306</v>
+      </c>
+      <c r="E12">
+        <v>2.2915549722626847</v>
       </c>
     </row>
   </sheetData>
